--- a/CheckRamcell (version 1).xlsx
+++ b/CheckRamcell (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PNM3HC\Desktop\Work\task4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PNM3HC\Desktop\GithubRepo\Python_file_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC3978A-8E31-4FA0-B057-EAC349FE1FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E706EB-B0CC-4F72-BCB6-901A6E11E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{081C0BD6-E955-40BF-AAE7-13A9A81CF47E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{081C0BD6-E955-40BF-AAE7-13A9A81CF47E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1472,30 +1472,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4FEBE4-8A72-4F66-8F1D-15D9420F6D40}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>134</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
